--- a/Config/Datas/enums.xlsx
+++ b/Config/Datas/enums.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Study\ET_Addressable_FGUI_Luban\Config\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FEAD37-41B5-47DB-B3FB-522DC5B9087D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>##</t>
   </si>
@@ -79,406 +73,18 @@
   <si>
     <t>注释</t>
   </si>
-  <si>
-    <t>BuffOverrideType</t>
-  </si>
-  <si>
-    <t>覆盖类型</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>Addition</t>
-  </si>
-  <si>
-    <t>叠加</t>
-  </si>
-  <si>
-    <t>Replace</t>
-  </si>
-  <si>
-    <t>覆盖</t>
-  </si>
-  <si>
-    <t>Extend</t>
-  </si>
-  <si>
-    <t>延长</t>
-  </si>
-  <si>
-    <t>BuffDispelType</t>
-  </si>
-  <si>
-    <t>可被驱散类型</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>Weak</t>
-  </si>
-  <si>
-    <t>弱</t>
-  </si>
-  <si>
-    <t>Strong</t>
-  </si>
-  <si>
-    <t>强</t>
-  </si>
-  <si>
-    <t>Death</t>
-  </si>
-  <si>
-    <t>死亡</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>登出</t>
-  </si>
-  <si>
-    <t>BattlePosition</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
-    <t>前排</t>
-  </si>
-  <si>
-    <t>Center</t>
-  </si>
-  <si>
-    <t>中坚</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>后排</t>
-  </si>
-  <si>
-    <t>Wing</t>
-  </si>
-  <si>
-    <t>侧翼</t>
-  </si>
-  <si>
-    <t>AnyClose</t>
-  </si>
-  <si>
-    <t>最前面</t>
-  </si>
-  <si>
-    <t>AnyFar</t>
-  </si>
-  <si>
-    <t>最后面</t>
-  </si>
-  <si>
-    <t>BattleTeam</t>
-  </si>
-  <si>
-    <t>战斗阵营</t>
-  </si>
-  <si>
-    <t>Neutral</t>
-  </si>
-  <si>
-    <t>中立</t>
-  </si>
-  <si>
-    <t>Neutral_INC</t>
-  </si>
-  <si>
-    <t>中立无害</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>INC</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是innocent的缩写</t>
-    </r>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>SkillRange</t>
-  </si>
-  <si>
-    <t>Unlimited</t>
-  </si>
-  <si>
-    <t>无限制</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>近身</t>
-  </si>
-  <si>
-    <t>NearDistance</t>
-  </si>
-  <si>
-    <t>近距</t>
-  </si>
-  <si>
-    <t>FarDistance</t>
-  </si>
-  <si>
-    <t>远距</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>范围</t>
-  </si>
-  <si>
-    <t>Enums.ItemType</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>常规</t>
-  </si>
-  <si>
-    <t>Equip</t>
-  </si>
-  <si>
-    <t>装备</t>
-  </si>
-  <si>
-    <t>Wondrous</t>
-  </si>
-  <si>
-    <t>奇物</t>
-  </si>
-  <si>
-    <t>Potion</t>
-  </si>
-  <si>
-    <t>药剂</t>
-  </si>
-  <si>
-    <t>Dragonshard</t>
-  </si>
-  <si>
-    <t>龙晶</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>ConsumeType</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>物品</t>
-  </si>
-  <si>
-    <t>ActionPoint</t>
-  </si>
-  <si>
-    <t>行动点</t>
-  </si>
-  <si>
-    <t>Attribute</t>
-  </si>
-  <si>
-    <t>属性</t>
-  </si>
-  <si>
-    <t>UnitType</t>
-  </si>
-  <si>
-    <t>Battle</t>
-  </si>
-  <si>
-    <t>战斗</t>
-  </si>
-  <si>
-    <t>Npc</t>
-  </si>
-  <si>
-    <t>Adventure</t>
-  </si>
-  <si>
-    <t>冒险</t>
-  </si>
-  <si>
-    <t>Obstacle</t>
-  </si>
-  <si>
-    <t>障碍物</t>
-  </si>
-  <si>
-    <t>VoidCaster</t>
-  </si>
-  <si>
-    <t>虚空施放者</t>
-  </si>
-  <si>
-    <t>BattleProcess</t>
-  </si>
-  <si>
-    <t>战斗流程</t>
-  </si>
-  <si>
-    <t>BattleStart</t>
-  </si>
-  <si>
-    <t>战斗开始</t>
-  </si>
-  <si>
-    <t>BattleEnd</t>
-  </si>
-  <si>
-    <t>战斗结束</t>
-  </si>
-  <si>
-    <t>RoundStart</t>
-  </si>
-  <si>
-    <t>回合开始</t>
-  </si>
-  <si>
-    <t>RoundEnd</t>
-  </si>
-  <si>
-    <t>回合结束</t>
-  </si>
-  <si>
-    <t>TurnStart</t>
-  </si>
-  <si>
-    <t>行动开始</t>
-  </si>
-  <si>
-    <t>TurnEnd</t>
-  </si>
-  <si>
-    <t>行动结束</t>
-  </si>
-  <si>
-    <t>BuffGroup</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>正面</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>负面</t>
-  </si>
-  <si>
-    <t>PickTeam</t>
-  </si>
-  <si>
-    <t>Mate</t>
-  </si>
-  <si>
-    <t>己方</t>
-  </si>
-  <si>
-    <t>Enemy</t>
-  </si>
-  <si>
-    <t>敌方</t>
-  </si>
-  <si>
-    <t>货物</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cargo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规仓库</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备仓库</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇物仓库</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>药剂仓库</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙晶仓库</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐藏仓库</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enums.StorageType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,14 +96,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -506,14 +111,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -521,14 +125,128 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -536,12 +254,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,12 +293,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -590,13 +507,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -672,24 +831,62 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -947,20 +1144,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40:XFD40"/>
+      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="L34" sqref="A4:L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="26.375" style="5" customWidth="1"/>
@@ -977,7 +1175,7 @@
     <col min="13" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -999,15 +1197,15 @@
       <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -1033,7 +1231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" s="1" customFormat="1" ht="76.5" customHeight="1" spans="1:12">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1063,33 +1261,21 @@
       </c>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="B4" s="14"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="15"/>
-      <c r="H4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="15">
-        <v>0</v>
-      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
@@ -1097,19 +1283,13 @@
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="15">
-        <v>1</v>
-      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="14"/>
       <c r="L5" s="15"/>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
@@ -1117,19 +1297,13 @@
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="15">
-        <v>2</v>
-      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="14"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
@@ -1137,22 +1311,14 @@
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="15">
-        <v>3</v>
-      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="14"/>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>0</v>
-      </c>
+    <row r="8" s="3" customFormat="1" ht="15" spans="1:12">
+      <c r="A8" s="17"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -1165,35 +1331,21 @@
       <c r="K8" s="18"/>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
-        <v>29</v>
-      </c>
+      <c r="B9" s="14"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0</v>
-      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="14"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
@@ -1201,19 +1353,13 @@
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="15">
-        <v>1</v>
-      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="14"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
@@ -1221,19 +1367,13 @@
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="15">
-        <v>2</v>
-      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="14"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
@@ -1241,19 +1381,13 @@
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="15">
-        <v>4</v>
-      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="14"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
@@ -1261,22 +1395,14 @@
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="15">
-        <v>5</v>
-      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="14"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>0</v>
-      </c>
+    <row r="14" s="3" customFormat="1" ht="15" spans="1:12">
+      <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -1289,31 +1415,21 @@
       <c r="K14" s="18"/>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="B15" s="14"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="15" t="b">
-        <v>1</v>
-      </c>
+      <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="21"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="15">
-        <v>1</v>
-      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="16"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="15"/>
@@ -1321,19 +1437,13 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="15">
-        <v>2</v>
-      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="14"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -1341,19 +1451,13 @@
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="15">
-        <v>4</v>
-      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="15"/>
       <c r="K17" s="14"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="15"/>
@@ -1361,19 +1465,13 @@
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="15">
-        <v>8</v>
-      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="14"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="15"/>
@@ -1381,19 +1479,13 @@
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="15">
-        <v>16</v>
-      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="14"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
@@ -1401,22 +1493,14 @@
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="15">
-        <v>32</v>
-      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="14"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>0</v>
-      </c>
+    <row r="21" s="3" customFormat="1" ht="15" spans="1:12">
+      <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -1429,33 +1513,21 @@
       <c r="K21" s="18"/>
       <c r="L21" s="19"/>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A22" s="13"/>
-      <c r="B22" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="B22" s="14"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="15" t="b">
-        <v>1</v>
-      </c>
+      <c r="D22" s="15"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="21" t="s">
-        <v>55</v>
-      </c>
+      <c r="F22" s="21"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="J22" s="15">
-        <v>1</v>
-      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="15"/>
       <c r="K22" s="16"/>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="15"/>
@@ -1463,21 +1535,13 @@
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
-      <c r="H23" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="J23" s="15">
-        <v>2</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>60</v>
-      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="15"/>
@@ -1485,17 +1549,13 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="14" t="s">
-        <v>61</v>
-      </c>
+      <c r="H24" s="14"/>
       <c r="I24" s="23"/>
-      <c r="J24" s="15">
-        <v>4</v>
-      </c>
+      <c r="J24" s="15"/>
       <c r="K24" s="14"/>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="15"/>
@@ -1503,17 +1563,13 @@
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="H25" s="14"/>
       <c r="I25" s="23"/>
-      <c r="J25" s="15">
-        <v>8</v>
-      </c>
+      <c r="J25" s="15"/>
       <c r="K25" s="14"/>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="15"/>
@@ -1521,17 +1577,13 @@
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
-      <c r="H26" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="H26" s="14"/>
       <c r="I26" s="23"/>
-      <c r="J26" s="15">
-        <v>16</v>
-      </c>
+      <c r="J26" s="15"/>
       <c r="K26" s="14"/>
       <c r="L26" s="15"/>
     </row>
-    <row r="27" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="15"/>
@@ -1539,20 +1591,14 @@
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
-      <c r="H27" s="14" t="s">
-        <v>64</v>
-      </c>
+      <c r="H27" s="14"/>
       <c r="I27" s="23"/>
-      <c r="J27" s="15">
-        <v>32</v>
-      </c>
+      <c r="J27" s="15"/>
       <c r="K27" s="14"/>
       <c r="L27" s="15"/>
     </row>
-    <row r="28" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>0</v>
-      </c>
+    <row r="28" s="3" customFormat="1" ht="15" spans="1:12">
+      <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -1565,27 +1611,21 @@
       <c r="K28" s="18"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A29" s="13"/>
-      <c r="B29" s="14" t="s">
-        <v>65</v>
-      </c>
+      <c r="B29" s="14"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
-      <c r="H29" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>67</v>
-      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="15"/>
       <c r="K29" s="16"/>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
@@ -1593,17 +1633,13 @@
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
-      <c r="H30" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>69</v>
-      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="15"/>
       <c r="K30" s="16"/>
       <c r="L30" s="15"/>
     </row>
-    <row r="31" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -1611,17 +1647,13 @@
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
-      <c r="H31" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>71</v>
-      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="15"/>
       <c r="K31" s="14"/>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
@@ -1629,17 +1661,13 @@
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
-      <c r="H32" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>73</v>
-      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="15"/>
       <c r="K32" s="14"/>
       <c r="L32" s="15"/>
     </row>
-    <row r="33" spans="1:12" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" s="2" customFormat="1" ht="15" spans="1:12">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
@@ -1647,20 +1675,14 @@
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
-      <c r="H33" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I33" s="23" t="s">
-        <v>75</v>
-      </c>
+      <c r="H33" s="14"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="15"/>
       <c r="K33" s="14"/>
       <c r="L33" s="15"/>
     </row>
-    <row r="34" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
-        <v>0</v>
-      </c>
+    <row r="34" s="3" customFormat="1" ht="15" spans="1:12">
+      <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -1673,29 +1695,21 @@
       <c r="K34" s="18"/>
       <c r="L34" s="19"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" s="10"/>
-      <c r="B35" s="20" t="s">
-        <v>76</v>
-      </c>
+      <c r="B35" s="20"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="J35" s="22">
-        <v>1</v>
-      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="22"/>
       <c r="K35" s="20"/>
       <c r="L35" s="22"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36" s="10"/>
       <c r="B36" s="20"/>
       <c r="C36" s="22"/>
@@ -1703,19 +1717,13 @@
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
-      <c r="H36" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36" s="22">
-        <v>2</v>
-      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="22"/>
       <c r="K36" s="20"/>
       <c r="L36" s="22"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="A37" s="10"/>
       <c r="B37" s="20"/>
       <c r="C37" s="22"/>
@@ -1723,19 +1731,13 @@
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="J37" s="22">
-        <v>3</v>
-      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="22"/>
       <c r="K37" s="20"/>
       <c r="L37" s="22"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="A38" s="10"/>
       <c r="B38" s="20"/>
       <c r="C38" s="22"/>
@@ -1743,19 +1745,13 @@
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="J38" s="22">
-        <v>4</v>
-      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="22"/>
       <c r="K38" s="20"/>
       <c r="L38" s="22"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39" s="10"/>
       <c r="B39" s="20"/>
       <c r="C39" s="22"/>
@@ -1763,19 +1759,13 @@
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="J39" s="22">
-        <v>5</v>
-      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="22"/>
       <c r="K39" s="20"/>
       <c r="L39" s="22"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40" s="10"/>
       <c r="B40" s="20"/>
       <c r="C40" s="22"/>
@@ -1783,22 +1773,14 @@
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="I40" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="J40" s="22">
-        <v>5</v>
-      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="22"/>
       <c r="K40" s="20"/>
       <c r="L40" s="22"/>
     </row>
-    <row r="41" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
-        <v>0</v>
-      </c>
+    <row r="41" s="3" customFormat="1" ht="15" spans="1:12">
+      <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -1811,29 +1793,21 @@
       <c r="K41" s="18"/>
       <c r="L41" s="19"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="A42" s="10"/>
-      <c r="B42" s="20" t="s">
-        <v>139</v>
-      </c>
+      <c r="B42" s="20"/>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
-      <c r="H42" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I42" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="J42" s="22">
-        <v>1</v>
-      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="22"/>
       <c r="K42" s="20"/>
       <c r="L42" s="22"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12">
       <c r="A43" s="10"/>
       <c r="B43" s="20"/>
       <c r="C43" s="22"/>
@@ -1841,19 +1815,13 @@
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-      <c r="H43" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="I43" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="J43" s="22">
-        <v>2</v>
-      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="22"/>
       <c r="K43" s="20"/>
       <c r="L43" s="22"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12">
       <c r="A44" s="10"/>
       <c r="B44" s="20"/>
       <c r="C44" s="22"/>
@@ -1861,19 +1829,13 @@
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I44" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="J44" s="22">
-        <v>3</v>
-      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="22"/>
       <c r="K44" s="20"/>
       <c r="L44" s="22"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="A45" s="10"/>
       <c r="B45" s="20"/>
       <c r="C45" s="22"/>
@@ -1881,19 +1843,13 @@
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="I45" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="J45" s="22">
-        <v>4</v>
-      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="22"/>
       <c r="K45" s="20"/>
       <c r="L45" s="22"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="A46" s="10"/>
       <c r="B46" s="20"/>
       <c r="C46" s="22"/>
@@ -1901,19 +1857,13 @@
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
-      <c r="H46" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J46" s="22">
-        <v>5</v>
-      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="22"/>
       <c r="K46" s="20"/>
       <c r="L46" s="22"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="A47" s="10"/>
       <c r="B47" s="20"/>
       <c r="C47" s="22"/>
@@ -1921,22 +1871,14 @@
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
-      <c r="H47" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="I47" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="J47" s="22">
-        <v>99</v>
-      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="22"/>
       <c r="K47" s="20"/>
       <c r="L47" s="22"/>
     </row>
-    <row r="48" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
-        <v>0</v>
-      </c>
+    <row r="48" s="3" customFormat="1" ht="15" spans="1:12">
+      <c r="A48" s="17"/>
       <c r="B48" s="18"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
@@ -1949,29 +1891,21 @@
       <c r="K48" s="18"/>
       <c r="L48" s="19"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12">
       <c r="A49" s="10"/>
-      <c r="B49" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="B49" s="20"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
-      <c r="H49" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J49" s="22">
-        <v>0</v>
-      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="22"/>
       <c r="K49" s="20"/>
       <c r="L49" s="22"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12">
       <c r="A50" s="10"/>
       <c r="B50" s="20"/>
       <c r="C50" s="22"/>
@@ -1979,19 +1913,13 @@
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
-      <c r="H50" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="I50" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J50" s="22">
-        <v>1</v>
-      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="22"/>
       <c r="K50" s="20"/>
       <c r="L50" s="22"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="A51" s="10"/>
       <c r="B51" s="20"/>
       <c r="C51" s="22"/>
@@ -1999,19 +1927,13 @@
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
-      <c r="H51" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="I51" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="J51" s="22">
-        <v>2</v>
-      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="22"/>
       <c r="K51" s="20"/>
       <c r="L51" s="22"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12">
       <c r="A52" s="10"/>
       <c r="B52" s="20"/>
       <c r="C52" s="22"/>
@@ -2019,22 +1941,14 @@
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
-      <c r="H52" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="I52" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="J52" s="22">
-        <v>3</v>
-      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="22"/>
       <c r="K52" s="20"/>
       <c r="L52" s="22"/>
     </row>
-    <row r="53" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="17" t="s">
-        <v>0</v>
-      </c>
+    <row r="53" s="3" customFormat="1" ht="15" spans="1:12">
+      <c r="A53" s="17"/>
       <c r="B53" s="18"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
@@ -2047,29 +1961,21 @@
       <c r="K53" s="18"/>
       <c r="L53" s="19"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12">
       <c r="A54" s="10"/>
-      <c r="B54" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="B54" s="20"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
-      <c r="H54" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J54" s="22">
-        <v>0</v>
-      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="22"/>
       <c r="K54" s="20"/>
       <c r="L54" s="22"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12">
       <c r="A55" s="10"/>
       <c r="B55" s="20"/>
       <c r="C55" s="22"/>
@@ -2077,19 +1983,13 @@
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
-      <c r="H55" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="I55" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="J55" s="22">
-        <v>1</v>
-      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="22"/>
       <c r="K55" s="20"/>
       <c r="L55" s="22"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12">
       <c r="A56" s="10"/>
       <c r="B56" s="20"/>
       <c r="C56" s="22"/>
@@ -2097,19 +1997,13 @@
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
-      <c r="H56" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="I56" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="J56" s="22">
-        <v>2</v>
-      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="22"/>
       <c r="K56" s="20"/>
       <c r="L56" s="22"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12">
       <c r="A57" s="10"/>
       <c r="B57" s="20"/>
       <c r="C57" s="22"/>
@@ -2117,19 +2011,13 @@
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
-      <c r="H57" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="I57" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J57" s="22">
-        <v>3</v>
-      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="22"/>
       <c r="K57" s="20"/>
       <c r="L57" s="22"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12">
       <c r="A58" s="10"/>
       <c r="B58" s="20"/>
       <c r="C58" s="22"/>
@@ -2137,17 +2025,13 @@
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
-      <c r="H58" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="H58" s="20"/>
       <c r="I58" s="20"/>
-      <c r="J58" s="22">
-        <v>4</v>
-      </c>
+      <c r="J58" s="22"/>
       <c r="K58" s="20"/>
       <c r="L58" s="22"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12">
       <c r="A59" s="10"/>
       <c r="B59" s="20"/>
       <c r="C59" s="22"/>
@@ -2155,19 +2039,13 @@
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
-      <c r="H59" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="I59" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="J59" s="22">
-        <v>5</v>
-      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="22"/>
       <c r="K59" s="20"/>
       <c r="L59" s="22"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12">
       <c r="A60" s="10"/>
       <c r="B60" s="20"/>
       <c r="C60" s="22"/>
@@ -2175,19 +2053,13 @@
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
-      <c r="H60" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="I60" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="J60" s="22">
-        <v>6</v>
-      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="22"/>
       <c r="K60" s="20"/>
       <c r="L60" s="22"/>
     </row>
-    <row r="61" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" customFormat="1" spans="1:12">
       <c r="A61" s="10"/>
       <c r="B61" s="20"/>
       <c r="C61" s="22"/>
@@ -2195,22 +2067,14 @@
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="I61" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="J61" s="22">
-        <v>7</v>
-      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="22"/>
       <c r="K61" s="20"/>
       <c r="L61" s="22"/>
     </row>
-    <row r="62" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="s">
-        <v>0</v>
-      </c>
+    <row r="62" s="3" customFormat="1" ht="15" spans="1:12">
+      <c r="A62" s="17"/>
       <c r="B62" s="18"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
@@ -2223,31 +2087,21 @@
       <c r="K62" s="18"/>
       <c r="L62" s="19"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12">
       <c r="A63" s="10"/>
-      <c r="B63" s="20" t="s">
-        <v>105</v>
-      </c>
+      <c r="B63" s="20"/>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
-      <c r="F63" s="22" t="s">
-        <v>106</v>
-      </c>
+      <c r="F63" s="22"/>
       <c r="G63" s="22"/>
-      <c r="H63" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I63" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J63" s="22">
-        <v>0</v>
-      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="22"/>
       <c r="K63" s="20"/>
       <c r="L63" s="22"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12">
       <c r="A64" s="10"/>
       <c r="B64" s="20"/>
       <c r="C64" s="22"/>
@@ -2255,19 +2109,13 @@
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
       <c r="G64" s="22"/>
-      <c r="H64" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I64" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="J64" s="22">
-        <v>1</v>
-      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="22"/>
       <c r="K64" s="20"/>
       <c r="L64" s="22"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12">
       <c r="A65" s="10"/>
       <c r="B65" s="20"/>
       <c r="C65" s="22"/>
@@ -2275,19 +2123,13 @@
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
       <c r="G65" s="22"/>
-      <c r="H65" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="I65" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="J65" s="22">
-        <v>2</v>
-      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="22"/>
       <c r="K65" s="20"/>
       <c r="L65" s="22"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12">
       <c r="A66" s="10"/>
       <c r="B66" s="20"/>
       <c r="C66" s="22"/>
@@ -2295,19 +2137,13 @@
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="I66" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="J66" s="22">
-        <v>3</v>
-      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="22"/>
       <c r="K66" s="20"/>
       <c r="L66" s="22"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12">
       <c r="A67" s="10"/>
       <c r="B67" s="20"/>
       <c r="C67" s="22"/>
@@ -2315,19 +2151,13 @@
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
-      <c r="H67" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="I67" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="J67" s="22">
-        <v>4</v>
-      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="22"/>
       <c r="K67" s="20"/>
       <c r="L67" s="22"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12">
       <c r="A68" s="10"/>
       <c r="B68" s="20"/>
       <c r="C68" s="22"/>
@@ -2335,19 +2165,13 @@
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
-      <c r="H68" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I68" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="J68" s="22">
-        <v>5</v>
-      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="22"/>
       <c r="K68" s="20"/>
       <c r="L68" s="22"/>
     </row>
-    <row r="69" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" s="3" customFormat="1" spans="1:12">
       <c r="A69" s="10"/>
       <c r="B69" s="20"/>
       <c r="C69" s="22"/>
@@ -2355,22 +2179,14 @@
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
       <c r="G69" s="22"/>
-      <c r="H69" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="I69" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="J69" s="22">
-        <v>6</v>
-      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="22"/>
       <c r="K69" s="20"/>
       <c r="L69" s="22"/>
     </row>
-    <row r="70" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
-        <v>0</v>
-      </c>
+    <row r="70" s="3" customFormat="1" ht="15" spans="1:12">
+      <c r="A70" s="17"/>
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
@@ -2383,31 +2199,21 @@
       <c r="K70" s="18"/>
       <c r="L70" s="19"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12">
       <c r="A71" s="10"/>
-      <c r="B71" s="20" t="s">
-        <v>119</v>
-      </c>
+      <c r="B71" s="20"/>
       <c r="C71" s="22"/>
-      <c r="D71" s="22" t="b">
-        <v>1</v>
-      </c>
+      <c r="D71" s="22"/>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
       <c r="G71" s="22"/>
-      <c r="H71" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I71" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J71" s="22">
-        <v>0</v>
-      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="22"/>
       <c r="K71" s="20"/>
       <c r="L71" s="22"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12">
       <c r="A72" s="10"/>
       <c r="B72" s="20"/>
       <c r="C72" s="22"/>
@@ -2415,19 +2221,13 @@
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
       <c r="G72" s="22"/>
-      <c r="H72" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="I72" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="J72" s="22">
-        <v>1</v>
-      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="22"/>
       <c r="K72" s="20"/>
       <c r="L72" s="22"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12">
       <c r="A73" s="10"/>
       <c r="B73" s="20"/>
       <c r="C73" s="22"/>
@@ -2435,22 +2235,14 @@
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
-      <c r="H73" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="I73" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="J73" s="22">
-        <v>2</v>
-      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="22"/>
       <c r="K73" s="20"/>
       <c r="L73" s="22"/>
     </row>
-    <row r="74" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="17" t="s">
-        <v>0</v>
-      </c>
+    <row r="74" s="3" customFormat="1" ht="15" spans="1:12">
+      <c r="A74" s="17"/>
       <c r="B74" s="18"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
@@ -2463,31 +2255,21 @@
       <c r="K74" s="18"/>
       <c r="L74" s="19"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12">
       <c r="A75" s="10"/>
-      <c r="B75" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="B75" s="20"/>
       <c r="C75" s="22"/>
-      <c r="D75" s="22" t="b">
-        <v>1</v>
-      </c>
+      <c r="D75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
       <c r="G75" s="22"/>
-      <c r="H75" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I75" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J75" s="22">
-        <v>0</v>
-      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="22"/>
       <c r="K75" s="20"/>
       <c r="L75" s="22"/>
     </row>
-    <row r="76" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" s="3" customFormat="1" spans="1:12">
       <c r="A76" s="10"/>
       <c r="B76" s="20"/>
       <c r="C76" s="22"/>
@@ -2495,19 +2277,13 @@
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
-      <c r="H76" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="I76" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="J76" s="22">
-        <v>1</v>
-      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="22"/>
       <c r="K76" s="20"/>
       <c r="L76" s="22"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12">
       <c r="A77" s="10"/>
       <c r="B77" s="20"/>
       <c r="C77" s="22"/>
@@ -2515,19 +2291,13 @@
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
-      <c r="H77" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="I77" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="J77" s="22">
-        <v>2</v>
-      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="22"/>
       <c r="K77" s="20"/>
       <c r="L77" s="22"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12">
       <c r="A78" s="10"/>
       <c r="B78" s="20"/>
       <c r="C78" s="22"/>
@@ -2541,7 +2311,7 @@
       <c r="K78" s="20"/>
       <c r="L78" s="22"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12">
       <c r="A79" s="10"/>
       <c r="B79" s="20"/>
       <c r="C79" s="22"/>
@@ -2555,7 +2325,7 @@
       <c r="K79" s="20"/>
       <c r="L79" s="22"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12">
       <c r="A80" s="10"/>
       <c r="B80" s="20"/>
       <c r="C80" s="22"/>
@@ -2569,7 +2339,7 @@
       <c r="K80" s="20"/>
       <c r="L80" s="22"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12">
       <c r="A81" s="10"/>
       <c r="B81" s="20"/>
       <c r="C81" s="22"/>
@@ -2583,7 +2353,7 @@
       <c r="K81" s="20"/>
       <c r="L81" s="22"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12">
       <c r="A82" s="10"/>
       <c r="B82" s="20"/>
       <c r="C82" s="22"/>
@@ -2597,7 +2367,7 @@
       <c r="K82" s="20"/>
       <c r="L82" s="22"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12">
       <c r="A83" s="10"/>
       <c r="B83" s="20"/>
       <c r="C83" s="22"/>
@@ -2611,7 +2381,7 @@
       <c r="K83" s="20"/>
       <c r="L83" s="22"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12">
       <c r="A84" s="10"/>
       <c r="B84" s="20"/>
       <c r="C84" s="22"/>
@@ -2625,7 +2395,7 @@
       <c r="K84" s="20"/>
       <c r="L84" s="22"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12">
       <c r="A85" s="10"/>
       <c r="B85" s="20"/>
       <c r="C85" s="22"/>
@@ -2639,7 +2409,7 @@
       <c r="K85" s="20"/>
       <c r="L85" s="22"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12">
       <c r="A86" s="10"/>
       <c r="B86" s="20"/>
       <c r="C86" s="22"/>
@@ -2653,7 +2423,7 @@
       <c r="K86" s="20"/>
       <c r="L86" s="22"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12">
       <c r="A87" s="10"/>
       <c r="B87" s="20"/>
       <c r="C87" s="22"/>
@@ -2667,7 +2437,7 @@
       <c r="K87" s="20"/>
       <c r="L87" s="22"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12">
       <c r="A88" s="10"/>
       <c r="B88" s="20"/>
       <c r="C88" s="22"/>
@@ -2685,8 +2455,8 @@
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>